--- a/example/metro.xlsx
+++ b/example/metro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="640" windowWidth="20760" windowHeight="16200"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="20760" windowHeight="16200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -8907,7 +8907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
+    <sheetView topLeftCell="A695" workbookViewId="0">
       <selection activeCell="F707" sqref="F707"/>
     </sheetView>
   </sheetViews>
@@ -37477,8 +37477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G629"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="G297" sqref="G297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -44580,10 +44580,10 @@
         <v>178</v>
       </c>
       <c r="F296" s="22">
-        <v>37.556221999999998</v>
+        <v>37.564428999999997</v>
       </c>
       <c r="G296" s="22">
-        <v>126.97247299999999</v>
+        <v>127.02929</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -52761,8 +52761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>

--- a/example/metro.xlsx
+++ b/example/metro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="660" windowWidth="30160" windowHeight="22300" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="30160" windowHeight="22300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="노선코드" sheetId="6" r:id="rId1"/>
@@ -34,10 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="2571">
   <si>
     <t>노선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전철역명</t>
@@ -4935,412 +4935,412 @@
   <si>
     <t>거 리
 (km)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>누 계
 (km)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>시간
 (분)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 ◇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>소요산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동두천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>보산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동두천중앙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>지행</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>덕정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>덕계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양주</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>녹양</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가능</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>의정부</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>망월사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도봉산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도봉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>방학</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>창동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>녹천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>월계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>광운대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>석계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신이문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>외대앞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>회기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>제기동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신설동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동대문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>종로5가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>종각</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>시청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남영</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대방</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>영등포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구로</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 신창방면◇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가산디지털단지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>독산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금천구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>석수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>관악</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>안양</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>명학</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>군포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>당정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>의왕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>성균관대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>세류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>병점</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>세마</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오산대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>진위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송탄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서정리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>지제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>평택</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>성환</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>직산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>두정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>천안</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>봉명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>아산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>배방</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>온양온천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신창</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 인천방면◇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구일</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>개봉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오류동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>역곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>소사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송내</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부개</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>백운</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>간석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>주안</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>제물포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동인천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 2 호선 ◇ </t>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>잠실나루</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 2 호선 성수지선 ◇</t>
@@ -5350,1621 +5350,1621 @@
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 3 호선 ◇</t>
   </si>
   <si>
     <t>대화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>주엽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정발산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마두</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>백석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>원당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>원흥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>삼송</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>지축</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>경찰병원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>◇ 4 호선 ◇</t>
   </si>
   <si>
     <t>선바위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>경마공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>과천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정부과천청사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인덕원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>평촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>범계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>산본</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수리산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대야미</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>반월</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상록수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>한대앞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중앙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>고잔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>초지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>안산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신길온천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정왕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>방화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>개화산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>김포공항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>발산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>우장산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오목교</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>영등포구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>영등포시장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>여의도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>여의나루</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>공덕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>애오개</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>충정로</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서대문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>광화문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>을지로4가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신금호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>행당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>답십리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>장한평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>아차산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>광나루</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>천호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>올림픽공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>방이</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>개롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>거여</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 강동지선◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>길동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>굽은다리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>명일</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>고덕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상일동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 6 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>응암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>역촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>불광</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>독바위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>연신내</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>응암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>새절</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>증산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>월드컵경기장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마포구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>망원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>합정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>광흥창</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대흥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>효창공원앞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>삼각지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>녹사평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>이태원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>한강진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>버티고개</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>약수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>창신</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>보문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>안암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>고려대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>월곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상월곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>돌곶이</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>태릉입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화랑대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>봉화산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 7 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>굴포천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>삼산체육관</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부천시청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신중동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>춘의</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부천종합운동장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>까치울</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>천왕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>광명사거리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>철산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남구로</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대림</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신풍</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>보라매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신대방삼거리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>장승배기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>숭실대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>내방</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>고속터미널</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>반포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>논현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>학동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청담</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>뚝섬유원지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>건대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>어린이대공원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용마산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>사가정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>면목</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상봉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>먹골</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>공릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>하계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중계</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>노원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마들</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수락산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>장암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 8 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신흥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>단대오거리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남한산성입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>산성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>복정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>장지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>문정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송파</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>석촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>잠실</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>몽촌토성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강동구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>암사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 9 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>개화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>공항시장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신방화</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마곡나루</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양천향교</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가양</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>증미</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>등촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>염창</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신목동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>선유도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>당산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>국회의사당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>샛강</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>노들</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>흑석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동작</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구반포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신반포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>사평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신논현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>언주</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>삼성중앙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>봉은사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>종합운동장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 인천 1 호선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>계양</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>귤현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>박촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>임학</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>계산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>경인교대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>작전</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>갈산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평시장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부평삼거리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>간석오거리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천시청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>예술회관</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천터미널</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>문학경기장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>선학</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신연수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동춘</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동막</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>캠퍼스타운</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>테크노파크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>지식정보단지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>센트럴파크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>국제업무지구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 분당선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>매교</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수원시청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>매탄권선</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>망포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>영통</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상갈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>기흥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신갈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>보정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>죽전</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>미금</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수내</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>이매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>야탑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>태평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가천대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대모산입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>개포동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구룡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>한티</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>선릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>압구정로데오</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서울숲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 신분당선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강남</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양재시민의숲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청계산입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>판교</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>파주</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>월롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>운정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>야당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>탄현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>일산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>풍산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>백마</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>곡산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>능곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>행신</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화전</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수색</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가좌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서강대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>이촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서빙고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>한남</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>옥수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>응봉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>중랑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>망우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도농</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>덕소</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>도심</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>팔당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>운길산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>국수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>아신</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오빈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>양평(경의중앙선)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>원덕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 가좌지선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경춘선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신내</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>갈매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>별내</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>퇴계원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>사릉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>평내호평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>천마산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>마석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>대성리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>가평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>굴봉산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>백양리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강촌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>김유정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남춘천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>춘천</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 수인선 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>연수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>남동인더스파크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>호구포</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천논현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>소래포구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>월곶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>달월</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 에버라인 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>강남대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>지석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>어정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동백</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>초당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>삼가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>명지대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>김량장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>고진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>보평</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>둔전</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 공항철도 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>인천국제공항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>공항화물청사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>운서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>청라국제도시</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>검암</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 의정부경전철 ◇ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>탑석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>어룡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>곤제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>효자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>경기도청북부청사</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>새말</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>동오</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>의정부중앙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>흥선</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>의정부시청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>경전철의정부</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>범골</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>발곡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0340</t>
@@ -7493,147 +7493,147 @@
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>호선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>미아사거리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>호선+역명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>문산</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>둔촌동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1호선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2호선</t>
@@ -7661,787 +7661,787 @@
   </si>
   <si>
     <t>인천1호선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>분당선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>신분당선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>경의중앙선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>경춘선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>수인선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>에버라인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>공항철도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>의정부경전철</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1회룡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>U회룡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1도봉산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7도봉산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1창동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4창동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1광운대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>G광운대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1석계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6석계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1회기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K회기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1청량리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K청량리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1신설동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2신설동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1동묘앞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6동묘앞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1동대문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4동대문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1종로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3종로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5종로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1시청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2시청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4서울</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1서울</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A서울</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1용산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K용산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1노량진</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9노량진</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1신길</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5신길</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1신도림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1온수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7온수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1부평</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I부평</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1가산디지털단지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7가산디지털단지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1금정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4금정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1수원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B수원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2을지로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3을지로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2을지로4가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5을지로4가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2동대문역사문화공원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4동대문역사문화공원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5동대문역사문화공원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2신당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6신당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K서울(경의중앙선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2왕십리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5왕십리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B왕십리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2건대입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7건대입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2잠실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8잠실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2선릉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B선릉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2강남</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S강남</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2교대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3교대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2사당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4사당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2대림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7대림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2영등포구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5영등포구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2당산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9당산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2합정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6합정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2홍대입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K홍대입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A홍대입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2충정로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5충정로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2까치산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5까치산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3대곡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K대곡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3연신내</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6연신내</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3불광</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6불광</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3충무로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4충무로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3약수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6약수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3옥수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K옥수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3고속터미널</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7고속터미널</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9고속터미널</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3양재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S양재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3도곡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B도곡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3수서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B수서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3가락시장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8가락시장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3오금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5오금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4노원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7노원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4삼각지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6삼각지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4이촌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K이촌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4동작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9동작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4총신대입구(이수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7총신대입구(이수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4오이도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SU오이도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5김포공항</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9김포공항</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A김포공항</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5여의도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9여의도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5청구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6청구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5군자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7군자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5천호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8천호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6디지털미디어시티</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K디지털미디어시티</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7상봉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K상봉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7강남구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B강남구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8복정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B복정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8모란</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B모란</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B정자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S정자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B기흥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>E기흥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I계양</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A계양</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I부평구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7부평구청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I원인재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SU원인재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>G망우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>K망우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>교대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2성수(성수지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2성수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2신도림(신정지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전철역코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
@@ -8456,42 +8456,50 @@
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*0211</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*0211</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*0211</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9선정릉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B선정릉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8502,9 +8510,17 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -8727,7 +8743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8737,19 +8753,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8758,30 +8774,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8799,7 +8815,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8808,67 +8869,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -9314,7 +9333,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9323,7 +9342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K655"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -9374,12 +9393,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="48" t="s">
         <v>1635</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -10845,12 +10864,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="48" t="s">
         <v>1676</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -12072,12 +12091,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="48" t="s">
         <v>1710</v>
       </c>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -12809,12 +12828,12 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="48" t="s">
         <v>1731</v>
       </c>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -14308,12 +14327,12 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D148" s="45" t="s">
+      <c r="D148" s="48" t="s">
         <v>1734</v>
       </c>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -14481,12 +14500,12 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D154" s="45" t="s">
+      <c r="D154" s="48" t="s">
         <v>1735</v>
       </c>
-      <c r="E154" s="45"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="45"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -14654,12 +14673,12 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D160" s="45" t="s">
+      <c r="D160" s="48" t="s">
         <v>1737</v>
       </c>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="45"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -16196,12 +16215,12 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D205" s="45" t="s">
+      <c r="D205" s="48" t="s">
         <v>1752</v>
       </c>
-      <c r="E205" s="45"/>
-      <c r="F205" s="45"/>
-      <c r="G205" s="45"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -17853,12 +17872,12 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D254" s="45" t="s">
+      <c r="D254" s="48" t="s">
         <v>1774</v>
       </c>
-      <c r="E254" s="45"/>
-      <c r="F254" s="45"/>
-      <c r="G254" s="45"/>
+      <c r="E254" s="48"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="48"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
@@ -19465,12 +19484,12 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D301" s="45" t="s">
+      <c r="D301" s="48" t="s">
         <v>1820</v>
       </c>
-      <c r="E301" s="45"/>
-      <c r="F301" s="45"/>
-      <c r="G301" s="45"/>
+      <c r="E301" s="48"/>
+      <c r="F301" s="48"/>
+      <c r="G301" s="48"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -19677,12 +19696,12 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D308" s="45" t="s">
+      <c r="D308" s="48" t="s">
         <v>1826</v>
       </c>
-      <c r="E308" s="45"/>
-      <c r="F308" s="45"/>
-      <c r="G308" s="45"/>
+      <c r="E308" s="48"/>
+      <c r="F308" s="48"/>
+      <c r="G308" s="48"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -21044,12 +21063,12 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D348" s="45" t="s">
+      <c r="D348" s="48" t="s">
         <v>1863</v>
       </c>
-      <c r="E348" s="45"/>
-      <c r="F348" s="45"/>
-      <c r="G348" s="45"/>
+      <c r="E348" s="48"/>
+      <c r="F348" s="48"/>
+      <c r="G348" s="48"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
@@ -22831,12 +22850,12 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D400" s="45" t="s">
+      <c r="D400" s="48" t="s">
         <v>1911</v>
       </c>
-      <c r="E400" s="45"/>
-      <c r="F400" s="45"/>
-      <c r="G400" s="45"/>
+      <c r="E400" s="48"/>
+      <c r="F400" s="48"/>
+      <c r="G400" s="48"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
@@ -23428,12 +23447,12 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D418" s="45" t="s">
+      <c r="D418" s="48" t="s">
         <v>1928</v>
       </c>
-      <c r="E418" s="45"/>
-      <c r="F418" s="45"/>
-      <c r="G418" s="45"/>
+      <c r="E418" s="48"/>
+      <c r="F418" s="48"/>
+      <c r="G418" s="48"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
@@ -24480,12 +24499,12 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D449" s="45" t="s">
+      <c r="D449" s="48" t="s">
         <v>1956</v>
       </c>
-      <c r="E449" s="45"/>
-      <c r="F449" s="45"/>
-      <c r="G449" s="45"/>
+      <c r="E449" s="48"/>
+      <c r="F449" s="48"/>
+      <c r="G449" s="48"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
@@ -25496,12 +25515,12 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D479" s="45" t="s">
+      <c r="D479" s="48" t="s">
         <v>1986</v>
       </c>
-      <c r="E479" s="45"/>
-      <c r="F479" s="45"/>
-      <c r="G479" s="45"/>
+      <c r="E479" s="48"/>
+      <c r="F479" s="48"/>
+      <c r="G479" s="48"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
@@ -26757,12 +26776,12 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D516" s="45" t="s">
+      <c r="D516" s="48" t="s">
         <v>2021</v>
       </c>
-      <c r="E516" s="45"/>
-      <c r="F516" s="45"/>
-      <c r="G516" s="45"/>
+      <c r="E516" s="48"/>
+      <c r="F516" s="48"/>
+      <c r="G516" s="48"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
@@ -26968,12 +26987,12 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D523" s="45" t="s">
+      <c r="D523" s="48" t="s">
         <v>2028</v>
       </c>
-      <c r="E523" s="45"/>
-      <c r="F523" s="45"/>
-      <c r="G523" s="45"/>
+      <c r="E523" s="48"/>
+      <c r="F523" s="48"/>
+      <c r="G523" s="48"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
@@ -28754,12 +28773,12 @@
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D575" s="45" t="s">
+      <c r="D575" s="48" t="s">
         <v>2074</v>
       </c>
-      <c r="E575" s="45"/>
-      <c r="F575" s="45"/>
-      <c r="G575" s="45"/>
+      <c r="E575" s="48"/>
+      <c r="F575" s="48"/>
+      <c r="G575" s="48"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
@@ -28860,12 +28879,12 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D579" s="45" t="s">
+      <c r="D579" s="48" t="s">
         <v>2075</v>
       </c>
-      <c r="E579" s="45"/>
-      <c r="F579" s="45"/>
-      <c r="G579" s="45"/>
+      <c r="E579" s="48"/>
+      <c r="F579" s="48"/>
+      <c r="G579" s="48"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
@@ -29596,12 +29615,12 @@
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D601" s="45" t="s">
+      <c r="D601" s="48" t="s">
         <v>2095</v>
       </c>
-      <c r="E601" s="45"/>
-      <c r="F601" s="45"/>
-      <c r="G601" s="45"/>
+      <c r="E601" s="48"/>
+      <c r="F601" s="48"/>
+      <c r="G601" s="48"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
@@ -29947,12 +29966,12 @@
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D612" s="45" t="s">
+      <c r="D612" s="48" t="s">
         <v>2106</v>
       </c>
-      <c r="E612" s="45"/>
-      <c r="F612" s="45"/>
-      <c r="G612" s="45"/>
+      <c r="E612" s="48"/>
+      <c r="F612" s="48"/>
+      <c r="G612" s="48"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
@@ -30473,12 +30492,12 @@
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D628" s="45" t="s">
+      <c r="D628" s="48" t="s">
         <v>2118</v>
       </c>
-      <c r="E628" s="45"/>
-      <c r="F628" s="45"/>
-      <c r="G628" s="45"/>
+      <c r="E628" s="48"/>
+      <c r="F628" s="48"/>
+      <c r="G628" s="48"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
@@ -30859,12 +30878,12 @@
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D640" s="45" t="s">
+      <c r="D640" s="48" t="s">
         <v>2125</v>
       </c>
-      <c r="E640" s="45"/>
-      <c r="F640" s="45"/>
-      <c r="G640" s="45"/>
+      <c r="E640" s="48"/>
+      <c r="F640" s="48"/>
+      <c r="G640" s="48"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
@@ -31386,6 +31405,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D348:G348"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="D301:G301"/>
+    <mergeCell ref="D308:G308"/>
     <mergeCell ref="D640:G640"/>
     <mergeCell ref="D400:G400"/>
     <mergeCell ref="D418:G418"/>
@@ -31398,30 +31429,18 @@
     <mergeCell ref="D601:G601"/>
     <mergeCell ref="D612:G612"/>
     <mergeCell ref="D628:G628"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D348:G348"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="D301:G301"/>
-    <mergeCell ref="D308:G308"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -34924,11 +34943,11 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="str">
-        <f t="shared" ref="A98:A105" si="6">LEFT(C98)</f>
+        <f t="shared" ref="A98:A106" si="6">LEFT(C98)</f>
         <v>B</v>
       </c>
       <c r="B98" s="11" t="str">
-        <f t="shared" ref="B98:B105" si="7">LEFT(D98)</f>
+        <f t="shared" ref="B98:B106" si="7">LEFT(D98)</f>
         <v>E</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -35161,7 +35180,7 @@
         <f>VLOOKUP(D104,역사코드!$A:$B,2,FALSE)</f>
         <v>0211</v>
       </c>
-      <c r="I104" s="47" t="s">
+      <c r="I104" s="46" t="s">
         <v>2567</v>
       </c>
       <c r="J104" s="43" t="s">
@@ -35207,6 +35226,42 @@
         <v>0</v>
       </c>
       <c r="L105" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B106" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E106" s="11" t="str">
+        <f>VLOOKUP(C106,역사코드!$A:$B,2,FALSE)</f>
+        <v>4127</v>
+      </c>
+      <c r="F106" s="11" t="str">
+        <f>VLOOKUP(D106,역사코드!$A:$B,2,FALSE)</f>
+        <v>1850</v>
+      </c>
+      <c r="I106" s="42" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J106" s="43" t="s">
+        <v>751</v>
+      </c>
+      <c r="K106" s="43">
+        <v>0</v>
+      </c>
+      <c r="L106" s="44">
         <v>6</v>
       </c>
     </row>
@@ -35215,7 +35270,7 @@
     <sortCondition ref="A1:A123"/>
     <sortCondition ref="B1:B123"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -35225,8 +35280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G630"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -43067,10 +43122,10 @@
         <f t="shared" ref="A327" si="6">CONCATENATE(D327,C327)</f>
         <v>2성수(성수지선)</v>
       </c>
-      <c r="B327" s="46" t="s">
+      <c r="B327" s="45" t="s">
         <v>2566</v>
       </c>
-      <c r="C327" s="48" t="s">
+      <c r="C327" s="47" t="s">
         <v>2565</v>
       </c>
       <c r="D327" s="13" t="s">
@@ -50359,7 +50414,7 @@
   <sortState ref="D2:G630">
     <sortCondition ref="D2:D630"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example/metro.xlsx
+++ b/example/metro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="540" windowWidth="30160" windowHeight="22300" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="540" windowWidth="30160" windowHeight="22300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="노선코드" sheetId="6" r:id="rId1"/>
@@ -8991,9 +8991,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9003,6 +9000,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -9965,10 +9965,10 @@
         <f t="shared" si="0"/>
         <v>5강동(강동지선)</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>2573</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>2574</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -11165,10 +11165,10 @@
         <f t="shared" ref="A71" si="3">CONCATENATE(D71,C71)</f>
         <v>1구로(신창방면)</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="49" t="s">
         <v>2582</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="51" t="s">
         <v>2580</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -18461,7 +18461,7 @@
         <f t="shared" si="7"/>
         <v>2신도림(신정지선)</v>
       </c>
-      <c r="B375" s="50" t="s">
+      <c r="B375" s="49" t="s">
         <v>2570</v>
       </c>
       <c r="C375" s="13" t="s">
@@ -24659,8 +24659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24710,12 +24710,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>1635</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -26259,12 +26259,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="53" t="s">
         <v>1676</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -27486,12 +27486,12 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="53" t="s">
         <v>1710</v>
       </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -28223,12 +28223,12 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="53" t="s">
         <v>1731</v>
       </c>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -29722,12 +29722,12 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="53" t="s">
         <v>1734</v>
       </c>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="49"/>
+      <c r="E151" s="53"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -29895,12 +29895,12 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D157" s="49" t="s">
+      <c r="D157" s="53" t="s">
         <v>1735</v>
       </c>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -30068,12 +30068,12 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D163" s="49" t="s">
+      <c r="D163" s="53" t="s">
         <v>1737</v>
       </c>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49"/>
-      <c r="G163" s="49"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -31610,12 +31610,12 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D208" s="49" t="s">
+      <c r="D208" s="53" t="s">
         <v>1752</v>
       </c>
-      <c r="E208" s="49"/>
-      <c r="F208" s="49"/>
-      <c r="G208" s="49"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -33267,12 +33267,12 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D257" s="49" t="s">
+      <c r="D257" s="53" t="s">
         <v>1774</v>
       </c>
-      <c r="E257" s="49"/>
-      <c r="F257" s="49"/>
-      <c r="G257" s="49"/>
+      <c r="E257" s="53"/>
+      <c r="F257" s="53"/>
+      <c r="G257" s="53"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
@@ -34879,12 +34879,12 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D304" s="49" t="s">
+      <c r="D304" s="53" t="s">
         <v>1820</v>
       </c>
-      <c r="E304" s="49"/>
-      <c r="F304" s="49"/>
-      <c r="G304" s="49"/>
+      <c r="E304" s="53"/>
+      <c r="F304" s="53"/>
+      <c r="G304" s="53"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -35091,12 +35091,12 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D311" s="49" t="s">
+      <c r="D311" s="53" t="s">
         <v>1826</v>
       </c>
-      <c r="E311" s="49"/>
-      <c r="F311" s="49"/>
-      <c r="G311" s="49"/>
+      <c r="E311" s="53"/>
+      <c r="F311" s="53"/>
+      <c r="G311" s="53"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
@@ -36458,12 +36458,12 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D351" s="49" t="s">
+      <c r="D351" s="53" t="s">
         <v>1863</v>
       </c>
-      <c r="E351" s="49"/>
-      <c r="F351" s="49"/>
-      <c r="G351" s="49"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="53"/>
+      <c r="G351" s="53"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
@@ -38245,12 +38245,12 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D403" s="49" t="s">
+      <c r="D403" s="53" t="s">
         <v>1911</v>
       </c>
-      <c r="E403" s="49"/>
-      <c r="F403" s="49"/>
-      <c r="G403" s="49"/>
+      <c r="E403" s="53"/>
+      <c r="F403" s="53"/>
+      <c r="G403" s="53"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
@@ -38842,12 +38842,12 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D421" s="49" t="s">
+      <c r="D421" s="53" t="s">
         <v>1928</v>
       </c>
-      <c r="E421" s="49"/>
-      <c r="F421" s="49"/>
-      <c r="G421" s="49"/>
+      <c r="E421" s="53"/>
+      <c r="F421" s="53"/>
+      <c r="G421" s="53"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
@@ -39894,12 +39894,12 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D452" s="49" t="s">
+      <c r="D452" s="53" t="s">
         <v>1956</v>
       </c>
-      <c r="E452" s="49"/>
-      <c r="F452" s="49"/>
-      <c r="G452" s="49"/>
+      <c r="E452" s="53"/>
+      <c r="F452" s="53"/>
+      <c r="G452" s="53"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
@@ -40910,12 +40910,12 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D482" s="49" t="s">
+      <c r="D482" s="53" t="s">
         <v>1986</v>
       </c>
-      <c r="E482" s="49"/>
-      <c r="F482" s="49"/>
-      <c r="G482" s="49"/>
+      <c r="E482" s="53"/>
+      <c r="F482" s="53"/>
+      <c r="G482" s="53"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
@@ -42171,12 +42171,12 @@
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D519" s="49" t="s">
+      <c r="D519" s="53" t="s">
         <v>2021</v>
       </c>
-      <c r="E519" s="49"/>
-      <c r="F519" s="49"/>
-      <c r="G519" s="49"/>
+      <c r="E519" s="53"/>
+      <c r="F519" s="53"/>
+      <c r="G519" s="53"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
@@ -42382,12 +42382,12 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D526" s="49" t="s">
+      <c r="D526" s="53" t="s">
         <v>2028</v>
       </c>
-      <c r="E526" s="49"/>
-      <c r="F526" s="49"/>
-      <c r="G526" s="49"/>
+      <c r="E526" s="53"/>
+      <c r="F526" s="53"/>
+      <c r="G526" s="53"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
@@ -44168,12 +44168,12 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D578" s="49" t="s">
+      <c r="D578" s="53" t="s">
         <v>2074</v>
       </c>
-      <c r="E578" s="49"/>
-      <c r="F578" s="49"/>
-      <c r="G578" s="49"/>
+      <c r="E578" s="53"/>
+      <c r="F578" s="53"/>
+      <c r="G578" s="53"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
@@ -44274,12 +44274,12 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D582" s="49" t="s">
+      <c r="D582" s="53" t="s">
         <v>2075</v>
       </c>
-      <c r="E582" s="49"/>
-      <c r="F582" s="49"/>
-      <c r="G582" s="49"/>
+      <c r="E582" s="53"/>
+      <c r="F582" s="53"/>
+      <c r="G582" s="53"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
@@ -45010,12 +45010,12 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D604" s="49" t="s">
+      <c r="D604" s="53" t="s">
         <v>2095</v>
       </c>
-      <c r="E604" s="49"/>
-      <c r="F604" s="49"/>
-      <c r="G604" s="49"/>
+      <c r="E604" s="53"/>
+      <c r="F604" s="53"/>
+      <c r="G604" s="53"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
@@ -45361,12 +45361,12 @@
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D615" s="49" t="s">
+      <c r="D615" s="53" t="s">
         <v>2106</v>
       </c>
-      <c r="E615" s="49"/>
-      <c r="F615" s="49"/>
-      <c r="G615" s="49"/>
+      <c r="E615" s="53"/>
+      <c r="F615" s="53"/>
+      <c r="G615" s="53"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
@@ -45887,12 +45887,12 @@
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D631" s="49" t="s">
+      <c r="D631" s="53" t="s">
         <v>2118</v>
       </c>
-      <c r="E631" s="49"/>
-      <c r="F631" s="49"/>
-      <c r="G631" s="49"/>
+      <c r="E631" s="53"/>
+      <c r="F631" s="53"/>
+      <c r="G631" s="53"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
@@ -46273,12 +46273,12 @@
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D643" s="49" t="s">
+      <c r="D643" s="53" t="s">
         <v>2125</v>
       </c>
-      <c r="E643" s="49"/>
-      <c r="F643" s="49"/>
-      <c r="G643" s="49"/>
+      <c r="E643" s="53"/>
+      <c r="F643" s="53"/>
+      <c r="G643" s="53"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
@@ -46800,18 +46800,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D643:G643"/>
-    <mergeCell ref="D403:G403"/>
-    <mergeCell ref="D421:G421"/>
-    <mergeCell ref="D452:G452"/>
-    <mergeCell ref="D482:G482"/>
-    <mergeCell ref="D519:G519"/>
-    <mergeCell ref="D526:G526"/>
-    <mergeCell ref="D578:G578"/>
-    <mergeCell ref="D582:G582"/>
-    <mergeCell ref="D604:G604"/>
-    <mergeCell ref="D615:G615"/>
-    <mergeCell ref="D631:G631"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D351:G351"/>
     <mergeCell ref="D48:G48"/>
@@ -46825,6 +46813,18 @@
     <mergeCell ref="D304:G304"/>
     <mergeCell ref="D311:G311"/>
     <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D643:G643"/>
+    <mergeCell ref="D403:G403"/>
+    <mergeCell ref="D421:G421"/>
+    <mergeCell ref="D452:G452"/>
+    <mergeCell ref="D482:G482"/>
+    <mergeCell ref="D519:G519"/>
+    <mergeCell ref="D526:G526"/>
+    <mergeCell ref="D578:G578"/>
+    <mergeCell ref="D582:G582"/>
+    <mergeCell ref="D604:G604"/>
+    <mergeCell ref="D615:G615"/>
+    <mergeCell ref="D631:G631"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46835,8 +46835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -50586,7 +50586,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -50612,7 +50612,7 @@
         <f>VLOOKUP(D105,역사코드!$A:$B,2,FALSE)</f>
         <v>0234</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="50" t="s">
         <v>2570</v>
       </c>
       <c r="J105" s="43" t="s">
@@ -50622,7 +50622,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -50670,10 +50670,10 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="52" t="s">
         <v>2577</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="52" t="s">
         <v>2578</v>
       </c>
       <c r="E107" s="11" t="str">
@@ -50694,7 +50694,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -50706,10 +50706,10 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="52" t="s">
         <v>2584</v>
       </c>
-      <c r="D108" s="53" t="s">
+      <c r="D108" s="52" t="s">
         <v>2585</v>
       </c>
       <c r="E108" s="11" t="str">
@@ -50730,7 +50730,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/metro.xlsx
+++ b/example/metro.xlsx
@@ -34,10 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="2598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="2597">
   <si>
     <t>노선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>전철역명</t>
@@ -4932,412 +4932,412 @@
   <si>
     <t>거 리
 (km)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>누 계
 (km)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>시간
 (분)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 ◇</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>소요산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동두천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>보산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동두천중앙</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>지행</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>덕정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>덕계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양주</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>녹양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>의정부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>망월사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도봉산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도봉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>방학</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>창동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>녹천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>월계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>광운대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>석계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신이문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>외대앞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>회기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제기동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신설동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동대문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>종로5가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>종각</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>시청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남영</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대방</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>영등포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구로</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 신창방면◇</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가산디지털단지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>독산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금천구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>석수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>관악</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>안양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>명학</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>군포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>당정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>의왕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>성균관대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>화서</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>세류</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>병점</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>세마</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오산대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>진위</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송탄</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서정리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>지제</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>평택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>성환</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>직산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>두정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>천안</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>봉명</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>아산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>배방</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>온양온천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신창</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 인천방면◇</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개봉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오류동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>역곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>소사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송내</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부개</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>백운</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동암</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>간석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주안</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제물포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동인천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 2 호선 ◇ </t>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>잠실나루</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 2 호선 성수지선 ◇</t>
@@ -5347,1613 +5347,1613 @@
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 3 호선 ◇</t>
   </si>
   <si>
     <t>대화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주엽</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정발산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마두</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>백석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>화정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>원당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>원흥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>삼송</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>지축</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>경찰병원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>◇ 4 호선 ◇</t>
   </si>
   <si>
     <t>선바위</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>경마공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>과천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정부과천청사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인덕원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>평촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>범계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>산본</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수리산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대야미</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>반월</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상록수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>한대앞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중앙</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>고잔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>초지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>안산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신길온천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정왕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>방화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개화산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>김포공항</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>발산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>우장산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>화곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>목동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오목교</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>영등포구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>영등포시장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>여의도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>여의나루</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>공덕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>애오개</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>충정로</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서대문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>광화문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>을지로4가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신금호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>행당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>답십리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장한평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>아차산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>광나루</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>천호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>올림픽공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>방이</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개롱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>거여</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 강동지선◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>길동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>굽은다리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>명일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>고덕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상일동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 6 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>역촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>불광</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>독바위</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>연신내</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>새절</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>증산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>월드컵경기장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마포구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>망원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>합정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>광흥창</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대흥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>효창공원앞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>삼각지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>녹사평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이태원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>한강진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>버티고개</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>약수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>창신</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>보문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>안암</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>고려대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>월곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상월곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>돌곶이</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>태릉입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>화랑대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>봉화산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 7 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>굴포천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>삼산체육관</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부천시청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신중동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>춘의</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부천종합운동장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>까치울</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>천왕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>광명사거리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>철산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남구로</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대림</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신풍</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>보라매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신대방삼거리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장승배기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>숭실대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>내방</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>고속터미널</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>반포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>논현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>학동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청담</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>뚝섬유원지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>건대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>어린이대공원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>용마산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>사가정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>면목</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상봉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>먹골</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>공릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>하계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>노원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마들</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수락산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장암</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 8 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신흥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>단대오거리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남한산성입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>산성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>복정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>문정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송파</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>석촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>잠실</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>몽촌토성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강동구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>암사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 9 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>공항시장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신방화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마곡나루</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양천향교</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>증미</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>등촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>염창</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신목동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>선유도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>당산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>국회의사당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>샛강</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>노들</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>흑석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동작</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구반포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신반포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>사평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신논현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>언주</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>삼성중앙</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>봉은사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>종합운동장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 인천 1 호선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>계양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>귤현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>박촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>임학</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>계산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>경인교대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>갈산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평시장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부평삼거리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>간석오거리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천시청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>예술회관</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천터미널</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>문학경기장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>선학</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신연수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동춘</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동막</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>캠퍼스타운</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>테크노파크</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>지식정보단지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>센트럴파크</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>국제업무지구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 분당선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>매교</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수원시청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>매탄권선</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>망포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>영통</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청명</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상갈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>기흥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신갈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>보정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>죽전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>미금</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수내</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>야탑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>태평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가천대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수서</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대모산입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개포동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구룡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>한티</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>선릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>압구정로데오</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서울숲</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 신분당선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강남</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양재시민의숲</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청계산입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>판교</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>파주</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>월롱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>운정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>야당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>탄현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>일산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>풍산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>백마</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>곡산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>능곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>행신</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>화전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수색</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가좌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서강대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서빙고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>한남</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>옥수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>응봉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>중랑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>망우</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도농</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>덕소</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>도심</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>팔당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>운길산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>국수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>아신</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오빈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>양평(경의중앙선)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>원덕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>용문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 가좌지선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경춘선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신내</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>갈매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>별내</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>퇴계원</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>사릉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>평내호평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>천마산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>마석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대성리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>굴봉산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>백양리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강촌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>김유정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남춘천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>춘천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 수인선 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>연수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>남동인더스파크</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>호구포</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천논현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>소래포구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>월곶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>달월</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 에버라인 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>강남대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>지석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>어정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동백</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>초당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>삼가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>명지대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>김량장</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>고진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>보평</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>둔전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 공항철도 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>인천국제공항</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>공항화물청사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>운서</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>청라국제도시</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>검암</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 의정부경전철 ◇ </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>탑석</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>어룡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>곤제</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>효자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>경기도청북부청사</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>새말</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>동오</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>의정부중앙</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>흥선</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>의정부시청</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>경전철의정부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>범골</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>발곡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>0340</t>
@@ -7482,147 +7482,147 @@
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>호선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>미아사거리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>호선+역명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>문산</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>둔촌동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SU</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1호선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2호선</t>
@@ -7650,783 +7650,783 @@
   </si>
   <si>
     <t>인천1호선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>분당선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>신분당선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>경의중앙선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>경춘선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>수인선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>에버라인</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>공항철도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>의정부경전철</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1회룡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>U회룡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1도봉산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7도봉산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1창동</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4창동</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1광운대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>G광운대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1석계</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6석계</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1회기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K회기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1청량리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K청량리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1신설동</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2신설동</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1동묘앞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6동묘앞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1동대문</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4동대문</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1종로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3종로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5종로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1시청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2시청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4서울</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1서울</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A서울</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1용산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K용산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1노량진</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9노량진</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1신길</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5신길</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1신도림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1온수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7온수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1부평</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I부평</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1가산디지털단지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7가산디지털단지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1금정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4금정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1수원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B수원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2을지로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3을지로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2을지로4가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5을지로4가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2동대문역사문화공원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4동대문역사문화공원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5동대문역사문화공원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2신당</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6신당</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K서울(경의중앙선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2왕십리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5왕십리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B왕십리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2건대입구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7건대입구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2잠실</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8잠실</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2선릉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B선릉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2강남</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>S강남</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2교대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3교대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2사당</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4사당</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2대림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7대림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2영등포구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5영등포구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2당산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9당산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2합정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6합정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2홍대입구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K홍대입구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A홍대입구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2충정로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5충정로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2까치산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5까치산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3대곡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K대곡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3연신내</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6연신내</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3불광</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6불광</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3충무로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4충무로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3약수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6약수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3옥수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K옥수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3고속터미널</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7고속터미널</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9고속터미널</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3양재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>S양재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3도곡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B도곡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3수서</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B수서</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3가락시장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8가락시장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3오금</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5오금</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4노원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7노원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4삼각지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6삼각지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4이촌</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K이촌</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4동작</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9동작</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4총신대입구(이수)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7총신대입구(이수)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4오이도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SU오이도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5김포공항</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9김포공항</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A김포공항</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5여의도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9여의도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5청구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6청구</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5군자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7군자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5천호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8천호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6디지털미디어시티</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K디지털미디어시티</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7상봉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K상봉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7강남구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B강남구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8복정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B복정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8모란</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B모란</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B정자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>S정자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B기흥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>E기흥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I계양</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A계양</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I부평구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7부평구청</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>I원인재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SU원인재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>G망우</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>K망우</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>교대</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2성수(성수지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2성수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2신도림(신정지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>전철역코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
@@ -8441,170 +8441,166 @@
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>*0211</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>*0211</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>*0211</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9선정릉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B선정릉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>*0234</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>*2549</t>
   </si>
   <si>
     <t>*2549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>강동(강동지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>강동(강동지선)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>*2549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5강동</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5강동(강동지선)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>구로(신창방면)</t>
   </si>
   <si>
     <t>구로(신창방면)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>*1701</t>
   </si>
   <si>
     <t>*1701</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>구로(신창방면)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1구로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1구로(신창방면)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 신도림-신창방면◇</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6응암</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>단방향</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 6 호선 (새절-응암) ◇ </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>응암</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>응암(역촌방면)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>응암(역촌방면)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6응암(역촌방면)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0211</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0211</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8615,9 +8611,17 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -8919,19 +8923,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8940,30 +8944,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8981,7 +8985,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8990,110 +9039,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9540,7 +9544,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9549,8 +9553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G633"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10047,11 +10051,11 @@
         <f t="shared" si="0"/>
         <v>5강동(강동지선)</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>2571</v>
+      <c r="B21" s="47" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>2568</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>422</v>
@@ -11247,11 +11251,11 @@
         <f t="shared" ref="A71" si="3">CONCATENATE(D71,C71)</f>
         <v>1구로(신창방면)</v>
       </c>
-      <c r="B71" s="49" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>2577</v>
+      <c r="B71" s="47" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>2574</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>95</v>
@@ -17439,10 +17443,10 @@
         <f t="shared" ref="A329" si="8">CONCATENATE(D329,C329)</f>
         <v>2성수(성수지선)</v>
       </c>
-      <c r="B329" s="45" t="s">
-        <v>2562</v>
-      </c>
-      <c r="C329" s="47" t="s">
+      <c r="B329" s="63" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C329" s="45" t="s">
         <v>2561</v>
       </c>
       <c r="D329" s="13" t="s">
@@ -18543,8 +18547,8 @@
         <f t="shared" si="7"/>
         <v>2신도림(신정지선)</v>
       </c>
-      <c r="B375" s="49" t="s">
-        <v>2567</v>
+      <c r="B375" s="47" t="s">
+        <v>2564</v>
       </c>
       <c r="C375" s="13" t="s">
         <v>2547</v>
@@ -21375,11 +21379,11 @@
         <f t="shared" ref="A493" si="12">CONCATENATE(D493,C493)</f>
         <v>6응암(역촌방면)</v>
       </c>
-      <c r="B493" s="55" t="s">
-        <v>2585</v>
-      </c>
-      <c r="C493" s="56" t="s">
-        <v>2593</v>
+      <c r="B493" s="53" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C493" s="54" t="s">
+        <v>2590</v>
       </c>
       <c r="D493" s="13" t="s">
         <v>474</v>
@@ -24755,7 +24759,7 @@
   <sortState ref="D2:G630">
     <sortCondition ref="D2:D630"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24765,8 +24769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L661"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24814,16 +24818,16 @@
         <v>2554</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>1634</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -26289,12 +26293,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="58" t="s">
-        <v>2583</v>
-      </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+      <c r="D45" s="57" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -26344,7 +26348,7 @@
         <v>1구로(신창방면)</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="E47" s="1">
         <v>1.1000000000000001</v>
@@ -26357,7 +26361,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="J47" s="2">
         <v>1.1000000000000001</v>
@@ -26367,12 +26371,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="56" t="s">
         <v>1675</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -26387,7 +26391,7 @@
         <v>1구로(신창방면)</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -26397,7 +26401,7 @@
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="23" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -27594,12 +27598,12 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D84" s="57" t="s">
+      <c r="D84" s="56" t="s">
         <v>1709</v>
       </c>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -28331,12 +28335,12 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D106" s="57" t="s">
+      <c r="D106" s="56" t="s">
         <v>1730</v>
       </c>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -29830,12 +29834,12 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D151" s="57" t="s">
+      <c r="D151" s="56" t="s">
         <v>1733</v>
       </c>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -29843,7 +29847,7 @@
       </c>
       <c r="B152" s="2" t="str">
         <f>VLOOKUP($C152, 역사코드!$A:$E,2,FALSE)</f>
-        <v>*0211</v>
+        <v>#0211</v>
       </c>
       <c r="C152" s="9" t="str">
         <f>CONCATENATE(A152,D152)</f>
@@ -29860,7 +29864,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="I152" s="23" t="s">
-        <v>2564</v>
+        <v>2596</v>
       </c>
       <c r="J152" s="2">
         <v>0</v>
@@ -30003,12 +30007,12 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D157" s="57" t="s">
+      <c r="D157" s="56" t="s">
         <v>1734</v>
       </c>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -30023,7 +30027,7 @@
         <v>2신도림(신정지선)</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -30033,7 +30037,7 @@
       </c>
       <c r="G158" s="5"/>
       <c r="I158" s="23" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="J158" s="2">
         <v>0</v>
@@ -30176,12 +30180,12 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D163" s="57" t="s">
+      <c r="D163" s="56" t="s">
         <v>1736</v>
       </c>
-      <c r="E163" s="57"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="57"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="56"/>
+      <c r="G163" s="56"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -31718,12 +31722,12 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D208" s="57" t="s">
+      <c r="D208" s="56" t="s">
         <v>1751</v>
       </c>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
+      <c r="E208" s="56"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -33375,12 +33379,12 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D257" s="57" t="s">
+      <c r="D257" s="56" t="s">
         <v>1773</v>
       </c>
-      <c r="E257" s="57"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="57"/>
+      <c r="E257" s="56"/>
+      <c r="F257" s="56"/>
+      <c r="G257" s="56"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
@@ -34987,12 +34991,12 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D304" s="57" t="s">
+      <c r="D304" s="56" t="s">
         <v>1819</v>
       </c>
-      <c r="E304" s="57"/>
-      <c r="F304" s="57"/>
-      <c r="G304" s="57"/>
+      <c r="E304" s="56"/>
+      <c r="F304" s="56"/>
+      <c r="G304" s="56"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -35007,7 +35011,7 @@
         <v>5강동(강동지선)</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E305" s="7">
         <v>0</v>
@@ -35017,7 +35021,7 @@
       </c>
       <c r="G305" s="8"/>
       <c r="I305" s="23" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="J305" s="2">
         <v>0</v>
@@ -35199,12 +35203,12 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D311" s="57" t="s">
+      <c r="D311" s="56" t="s">
         <v>1825</v>
       </c>
-      <c r="E311" s="57"/>
-      <c r="F311" s="57"/>
-      <c r="G311" s="57"/>
+      <c r="E311" s="56"/>
+      <c r="F311" s="56"/>
+      <c r="G311" s="56"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
@@ -35219,7 +35223,7 @@
         <v>6응암(역촌방면)</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="E312" s="7">
         <v>0</v>
@@ -35229,7 +35233,7 @@
       </c>
       <c r="G312" s="8"/>
       <c r="I312" s="23" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="J312" s="2">
         <v>0</v>
@@ -35270,7 +35274,7 @@
         <v>1</v>
       </c>
       <c r="L313" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -35308,7 +35312,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -35346,7 +35350,7 @@
         <v>2</v>
       </c>
       <c r="L315" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -35384,7 +35388,7 @@
         <v>2</v>
       </c>
       <c r="L316" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -35422,7 +35426,7 @@
         <v>1</v>
       </c>
       <c r="L317" s="24" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -35438,7 +35442,7 @@
         <v>6응암</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="E318" s="7">
         <v>1.5</v>
@@ -35460,7 +35464,7 @@
         <v>2</v>
       </c>
       <c r="L318" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -35498,7 +35502,7 @@
         <v>1</v>
       </c>
       <c r="L319" s="24" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -36587,12 +36591,12 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D351" s="61" t="s">
-        <v>2591</v>
-      </c>
-      <c r="E351" s="62"/>
-      <c r="F351" s="62"/>
-      <c r="G351" s="63"/>
+      <c r="D351" s="60" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E351" s="61"/>
+      <c r="F351" s="61"/>
+      <c r="G351" s="62"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
@@ -36639,7 +36643,7 @@
         <v>6응암(역촌방면)</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="E353" s="7">
         <v>0.9</v>
@@ -36649,7 +36653,7 @@
       </c>
       <c r="G353" s="8"/>
       <c r="I353" s="2" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="J353" s="1">
         <v>0.9</v>
@@ -36658,16 +36662,16 @@
         <v>7.5</v>
       </c>
       <c r="L353" s="24" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D354" s="57" t="s">
+      <c r="D354" s="56" t="s">
         <v>1860</v>
       </c>
-      <c r="E354" s="57"/>
-      <c r="F354" s="57"/>
-      <c r="G354" s="57"/>
+      <c r="E354" s="56"/>
+      <c r="F354" s="56"/>
+      <c r="G354" s="56"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
@@ -38449,12 +38453,12 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D406" s="57" t="s">
+      <c r="D406" s="56" t="s">
         <v>1908</v>
       </c>
-      <c r="E406" s="57"/>
-      <c r="F406" s="57"/>
-      <c r="G406" s="57"/>
+      <c r="E406" s="56"/>
+      <c r="F406" s="56"/>
+      <c r="G406" s="56"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
@@ -39046,12 +39050,12 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D424" s="57" t="s">
+      <c r="D424" s="56" t="s">
         <v>1925</v>
       </c>
-      <c r="E424" s="57"/>
-      <c r="F424" s="57"/>
-      <c r="G424" s="57"/>
+      <c r="E424" s="56"/>
+      <c r="F424" s="56"/>
+      <c r="G424" s="56"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
@@ -40098,12 +40102,12 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D455" s="57" t="s">
+      <c r="D455" s="56" t="s">
         <v>1953</v>
       </c>
-      <c r="E455" s="57"/>
-      <c r="F455" s="57"/>
-      <c r="G455" s="57"/>
+      <c r="E455" s="56"/>
+      <c r="F455" s="56"/>
+      <c r="G455" s="56"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
@@ -41114,12 +41118,12 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D485" s="57" t="s">
+      <c r="D485" s="56" t="s">
         <v>1983</v>
       </c>
-      <c r="E485" s="57"/>
-      <c r="F485" s="57"/>
-      <c r="G485" s="57"/>
+      <c r="E485" s="56"/>
+      <c r="F485" s="56"/>
+      <c r="G485" s="56"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
@@ -42375,12 +42379,12 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D522" s="57" t="s">
+      <c r="D522" s="56" t="s">
         <v>2018</v>
       </c>
-      <c r="E522" s="57"/>
-      <c r="F522" s="57"/>
-      <c r="G522" s="57"/>
+      <c r="E522" s="56"/>
+      <c r="F522" s="56"/>
+      <c r="G522" s="56"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
@@ -42586,12 +42590,12 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D529" s="57" t="s">
+      <c r="D529" s="56" t="s">
         <v>2025</v>
       </c>
-      <c r="E529" s="57"/>
-      <c r="F529" s="57"/>
-      <c r="G529" s="57"/>
+      <c r="E529" s="56"/>
+      <c r="F529" s="56"/>
+      <c r="G529" s="56"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
@@ -44372,12 +44376,12 @@
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D581" s="57" t="s">
+      <c r="D581" s="56" t="s">
         <v>2071</v>
       </c>
-      <c r="E581" s="57"/>
-      <c r="F581" s="57"/>
-      <c r="G581" s="57"/>
+      <c r="E581" s="56"/>
+      <c r="F581" s="56"/>
+      <c r="G581" s="56"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
@@ -44478,12 +44482,12 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D585" s="57" t="s">
+      <c r="D585" s="56" t="s">
         <v>2072</v>
       </c>
-      <c r="E585" s="57"/>
-      <c r="F585" s="57"/>
-      <c r="G585" s="57"/>
+      <c r="E585" s="56"/>
+      <c r="F585" s="56"/>
+      <c r="G585" s="56"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
@@ -45214,12 +45218,12 @@
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D607" s="57" t="s">
+      <c r="D607" s="56" t="s">
         <v>2092</v>
       </c>
-      <c r="E607" s="57"/>
-      <c r="F607" s="57"/>
-      <c r="G607" s="57"/>
+      <c r="E607" s="56"/>
+      <c r="F607" s="56"/>
+      <c r="G607" s="56"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
@@ -45565,12 +45569,12 @@
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D618" s="57" t="s">
+      <c r="D618" s="56" t="s">
         <v>2103</v>
       </c>
-      <c r="E618" s="57"/>
-      <c r="F618" s="57"/>
-      <c r="G618" s="57"/>
+      <c r="E618" s="56"/>
+      <c r="F618" s="56"/>
+      <c r="G618" s="56"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
@@ -46091,12 +46095,12 @@
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D634" s="57" t="s">
+      <c r="D634" s="56" t="s">
         <v>2115</v>
       </c>
-      <c r="E634" s="57"/>
-      <c r="F634" s="57"/>
-      <c r="G634" s="57"/>
+      <c r="E634" s="56"/>
+      <c r="F634" s="56"/>
+      <c r="G634" s="56"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
@@ -46477,12 +46481,12 @@
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D646" s="57" t="s">
+      <c r="D646" s="56" t="s">
         <v>2122</v>
       </c>
-      <c r="E646" s="57"/>
-      <c r="F646" s="57"/>
-      <c r="G646" s="57"/>
+      <c r="E646" s="56"/>
+      <c r="F646" s="56"/>
+      <c r="G646" s="56"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
@@ -47004,6 +47008,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D646:G646"/>
+    <mergeCell ref="D406:G406"/>
+    <mergeCell ref="D424:G424"/>
+    <mergeCell ref="D455:G455"/>
+    <mergeCell ref="D485:G485"/>
+    <mergeCell ref="D522:G522"/>
+    <mergeCell ref="D529:G529"/>
+    <mergeCell ref="D581:G581"/>
+    <mergeCell ref="D585:G585"/>
+    <mergeCell ref="D607:G607"/>
+    <mergeCell ref="D618:G618"/>
+    <mergeCell ref="D634:G634"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D354:G354"/>
     <mergeCell ref="D48:G48"/>
@@ -47018,20 +47034,8 @@
     <mergeCell ref="D311:G311"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D351:G351"/>
-    <mergeCell ref="D646:G646"/>
-    <mergeCell ref="D406:G406"/>
-    <mergeCell ref="D424:G424"/>
-    <mergeCell ref="D455:G455"/>
-    <mergeCell ref="D485:G485"/>
-    <mergeCell ref="D522:G522"/>
-    <mergeCell ref="D529:G529"/>
-    <mergeCell ref="D581:G581"/>
-    <mergeCell ref="D585:G585"/>
-    <mergeCell ref="D607:G607"/>
-    <mergeCell ref="D618:G618"/>
-    <mergeCell ref="D634:G634"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -47041,7 +47045,7 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -50775,14 +50779,14 @@
       </c>
       <c r="E104" s="11" t="str">
         <f>VLOOKUP(C104,역사코드!$A:$B,2,FALSE)</f>
-        <v>*0211</v>
+        <v>#0211</v>
       </c>
       <c r="F104" s="11" t="str">
         <f>VLOOKUP(D104,역사코드!$A:$B,2,FALSE)</f>
         <v>0211</v>
       </c>
-      <c r="I104" s="46" t="s">
-        <v>2563</v>
+      <c r="I104" s="64" t="s">
+        <v>2596</v>
       </c>
       <c r="J104" s="43" t="s">
         <v>968</v>
@@ -50817,8 +50821,8 @@
         <f>VLOOKUP(D105,역사코드!$A:$B,2,FALSE)</f>
         <v>0234</v>
       </c>
-      <c r="I105" s="50" t="s">
-        <v>2567</v>
+      <c r="I105" s="48" t="s">
+        <v>2564</v>
       </c>
       <c r="J105" s="43" t="s">
         <v>234</v>
@@ -50839,11 +50843,11 @@
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
-      <c r="C106" s="48" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D106" s="48" t="s">
-        <v>2566</v>
+      <c r="C106" s="46" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>2563</v>
       </c>
       <c r="E106" s="11" t="str">
         <f>VLOOKUP(C106,역사코드!$A:$B,2,FALSE)</f>
@@ -50875,11 +50879,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C107" s="52" t="s">
-        <v>2574</v>
-      </c>
-      <c r="D107" s="52" t="s">
-        <v>2575</v>
+      <c r="C107" s="50" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>2572</v>
       </c>
       <c r="E107" s="11" t="str">
         <f>VLOOKUP(C107,역사코드!$A:$B,2,FALSE)</f>
@@ -50893,7 +50897,7 @@
         <v>555</v>
       </c>
       <c r="J107" s="43" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="K107" s="43">
         <v>0</v>
@@ -50911,11 +50915,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C108" s="52" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D108" s="52" t="s">
-        <v>2582</v>
+      <c r="C108" s="50" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>2579</v>
       </c>
       <c r="E108" s="11" t="str">
         <f>VLOOKUP(C108,역사코드!$A:$B,2,FALSE)</f>
@@ -50929,7 +50933,7 @@
         <v>1023</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="K108" s="43">
         <v>0</v>
@@ -50947,11 +50951,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="C109" s="53" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D109" s="64" t="s">
-        <v>2597</v>
+      <c r="C109" s="51" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>2594</v>
       </c>
       <c r="E109" s="11">
         <f>VLOOKUP(C109,역사코드!$A:$B,2,FALSE)</f>
@@ -50964,8 +50968,8 @@
       <c r="I109" s="42">
         <v>2611</v>
       </c>
-      <c r="J109" s="54" t="s">
-        <v>2587</v>
+      <c r="J109" s="52" t="s">
+        <v>2584</v>
       </c>
       <c r="K109" s="43">
         <v>0</v>
@@ -50979,7 +50983,7 @@
     <sortCondition ref="A1:A123"/>
     <sortCondition ref="B1:B123"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example/metro.xlsx
+++ b/example/metro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="1460" windowWidth="30160" windowHeight="20740" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="1380" windowWidth="30160" windowHeight="20740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="노선코드" sheetId="6" r:id="rId1"/>
@@ -34,10 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="2597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="2599">
   <si>
     <t>노선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전철역명</t>
@@ -4932,412 +4932,412 @@
   <si>
     <t>거 리
 (km)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>누 계
 (km)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>시간
 (분)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 ◇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>소요산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동두천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>보산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동두천중앙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>지행</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>덕정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>덕계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양주</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>녹양</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가능</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>의정부</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>망월사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도봉산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도봉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>방학</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>창동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>녹천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>월계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>광운대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>석계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신이문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>외대앞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>회기</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>제기동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신설동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동대문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>종로5가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>종각</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>시청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남영</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대방</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>영등포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구로</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 신창방면◇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가산디지털단지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>독산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금천구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>석수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>관악</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>안양</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>명학</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>군포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>당정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>의왕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>성균관대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>화서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>세류</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>병점</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>세마</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오산대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>진위</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송탄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서정리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>지제</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>평택</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>성환</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>직산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>두정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>천안</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>봉명</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>아산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>배방</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>온양온천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신창</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 인천방면◇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구일</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개봉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오류동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>역곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>소사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송내</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부개</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>백운</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동암</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>간석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>주안</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>제물포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동인천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 2 호선 ◇ </t>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>잠실나루</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 2 호선 성수지선 ◇</t>
@@ -5347,1613 +5347,1613 @@
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 3 호선 ◇</t>
   </si>
   <si>
     <t>대화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>주엽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정발산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마두</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>백석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>화정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>원당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>원흥</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>삼송</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>지축</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>경찰병원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>◇ 4 호선 ◇</t>
   </si>
   <si>
     <t>선바위</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>경마공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>과천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정부과천청사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인덕원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>평촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>범계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>산본</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수리산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대야미</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>반월</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상록수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>한대앞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중앙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>고잔</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>초지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>안산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신길온천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정왕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>방화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개화산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>김포공항</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>발산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>우장산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>화곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>까치산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>목동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오목교</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>영등포구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>영등포시장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신길</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>여의도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>여의나루</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>공덕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>애오개</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>충정로</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서대문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>광화문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>을지로4가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신금호</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>행당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>답십리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>장한평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>아차산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>광나루</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>천호</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>올림픽공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>방이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오금</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개롱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>거여</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 5 호선 강동지선◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>길동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>굽은다리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>명일</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>고덕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상일동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 6 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>역촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>불광</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>독바위</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>연신내</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>새절</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>증산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>월드컵경기장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마포구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>망원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>합정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>광흥창</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대흥</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>효창공원앞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>삼각지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>녹사평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>이태원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>한강진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>버티고개</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>약수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동묘앞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>창신</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>보문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>안암</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>고려대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>월곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상월곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>돌곶이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>태릉입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>화랑대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>봉화산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 7 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>굴포천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>삼산체육관</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부천시청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신중동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>춘의</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부천종합운동장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>까치울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>온수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>천왕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>광명사거리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>철산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남구로</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대림</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신풍</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>보라매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신대방삼거리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>장승배기</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>숭실대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남성</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>내방</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>고속터미널</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>반포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>논현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>학동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청담</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>뚝섬유원지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>건대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>어린이대공원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>군자</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>용마산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>사가정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>면목</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상봉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>먹골</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>공릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>하계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>노원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마들</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수락산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>장암</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 8 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신흥</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>단대오거리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남한산성입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>산성</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>복정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>장지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>문정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가락시장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송파</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>석촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>잠실</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>몽촌토성</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강동구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>암사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 9 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>공항시장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신방화</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마곡나루</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양천향교</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가양</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>증미</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>등촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>염창</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신목동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>선유도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>당산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>국회의사당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>샛강</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>노량진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>노들</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>흑석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동작</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구반포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신반포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>사평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신논현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>언주</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>삼성중앙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>봉은사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>종합운동장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 인천 1 호선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>계양</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>귤현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>박촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>임학</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>계산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>경인교대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>작전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>갈산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평시장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부평삼거리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>간석오거리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천시청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>예술회관</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천터미널</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>문학경기장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>선학</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신연수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동춘</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동막</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>캠퍼스타운</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>테크노파크</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>지식정보단지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>센트럴파크</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>국제업무지구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 분당선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>매교</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수원시청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>매탄권선</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>망포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>영통</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청명</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상갈</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>기흥</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신갈</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구성</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>보정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>죽전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>미금</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수내</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>이매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>야탑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>모란</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>태평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가천대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대모산입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개포동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구룡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>한티</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>선릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>선정릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강남구청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>압구정로데오</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서울숲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>왕십리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 신분당선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강남</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양재시민의숲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청계산입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>판교</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>파주</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>월롱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>운정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>야당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>탄현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>일산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>풍산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>백마</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>곡산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>능곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>행신</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>화전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수색</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가좌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서강대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>이촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서빙고</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>한남</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>옥수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>응봉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청량리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>중랑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>망우</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도농</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>덕소</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>도심</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>팔당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>운길산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>국수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>아신</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오빈</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>양평(경의중앙선)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>원덕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>용문</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경의 중앙선 가좌지선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 경춘선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신내</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>갈매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>별내</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>퇴계원</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>사릉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>평내호평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>천마산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>대성리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>굴봉산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>백양리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강촌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>김유정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남춘천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>춘천</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 수인선 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>연수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남동인더스파크</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>호구포</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천논현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>소래포구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>월곶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>달월</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 에버라인 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>강남대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>지석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>어정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동백</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>초당</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>삼가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>명지대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>김량장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>고진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>보평</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>둔전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 공항철도 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>인천국제공항</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>공항화물청사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>운서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>청라국제도시</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>검암</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>홍대입구</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 의정부경전철 ◇ </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>탑석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>어룡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>곤제</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>효자</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>경기도청북부청사</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>새말</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>동오</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>의정부중앙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>흥선</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>의정부시청</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>경전철의정부</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>범골</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>발곡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0340</t>
@@ -7482,147 +7482,147 @@
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>회룡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>쌍용(나사렛대)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>호선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>미아사거리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>호선+역명</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>문산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>총신대입구(이수)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신촌(경의중앙선)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>서울(경의중앙선)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>둔촌동</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SU</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>시청·용인대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>운동장·송담대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전대·에버랜드</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1호선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2호선</t>
@@ -7650,783 +7650,783 @@
   </si>
   <si>
     <t>인천1호선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분당선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신분당선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>경의중앙선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>경춘선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>수인선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>에버라인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>공항철도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>의정부경전철</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1회룡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>U회룡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1도봉산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7도봉산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1창동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4창동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1광운대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>G광운대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1석계</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6석계</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1회기</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K회기</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1청량리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K청량리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1신설동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2신설동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1동묘앞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6동묘앞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1동대문</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4동대문</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1종로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3종로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5종로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1시청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2시청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4서울</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1서울</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A서울</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1용산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K용산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1노량진</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9노량진</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1신길</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5신길</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1신도림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1온수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7온수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1부평</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I부평</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1가산디지털단지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7가산디지털단지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1금정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4금정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1수원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B수원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2을지로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3을지로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2을지로4가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5을지로4가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2동대문역사문화공원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4동대문역사문화공원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5동대문역사문화공원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2신당</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6신당</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K서울(경의중앙선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2왕십리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5왕십리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B왕십리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2건대입구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7건대입구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2잠실</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8잠실</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2선릉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B선릉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2강남</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>S강남</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2교대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3교대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2사당</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4사당</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2대림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7대림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2영등포구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5영등포구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2당산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9당산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2합정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6합정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2홍대입구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K홍대입구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A홍대입구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2충정로</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5충정로</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2까치산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5까치산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3대곡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K대곡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3연신내</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6연신내</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3불광</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6불광</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3충무로</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4충무로</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3약수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6약수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3옥수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K옥수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3고속터미널</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7고속터미널</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9고속터미널</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3양재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>S양재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3도곡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B도곡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3수서</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B수서</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3가락시장</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8가락시장</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3오금</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5오금</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4노원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7노원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4삼각지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6삼각지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4이촌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K이촌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4동작</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9동작</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4총신대입구(이수)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7총신대입구(이수)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4오이도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SU오이도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5김포공항</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9김포공항</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A김포공항</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5여의도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9여의도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5청구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6청구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K왕십리</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5군자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7군자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5천호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8천호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6디지털미디어시티</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K디지털미디어시티</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7상봉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K상봉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7강남구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B강남구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8복정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B복정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8모란</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B모란</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B정자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>S정자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B기흥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>E기흥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I계양</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A계양</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I부평구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7부평구청</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I원인재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SU원인재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K공덕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A디지털미디어시티</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>G망우</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K망우</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>용산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>송산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>교대</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>종로3가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>오이도</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>원인재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>양재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>정자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>디지털미디어시티</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>동대문역사문화공원</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2성수(성수지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2성수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신도림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2신도림(신정지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2신도림</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전철역코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>역 코드</t>
@@ -8441,166 +8441,174 @@
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Lookup Code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>역사 코드</t>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>성수(성수지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9선정릉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B선정릉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*0234</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신도림(신정지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>*2549</t>
   </si>
   <si>
     <t>*2549</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>강동(강동지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>강동(강동지선)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>*2549</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5강동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5강동(강동지선)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>구로(신창방면)</t>
   </si>
   <si>
     <t>구로(신창방면)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>*1701</t>
   </si>
   <si>
     <t>*1701</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>구로(신창방면)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1구로</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1구로(신창방면)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>◇ 1 호선 신도림-신창방면◇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6응암</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>단방향</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">◇ 6 호선 (새절-응암) ◇ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>응암</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>응암(역촌방면)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>응암(역촌방면)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>*2611</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6응암(역촌방면)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>#0211</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>#0211</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0234</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0234</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0234</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8611,9 +8619,17 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -8913,7 +8929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8923,19 +8939,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8944,30 +8960,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8985,7 +9001,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8994,103 +9055,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9544,7 +9563,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9553,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G633"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="B329" sqref="B329"/>
+    <sheetView topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="B375" sqref="B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10052,10 +10071,10 @@
         <v>5강동(강동지선)</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>2567</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>2568</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>422</v>
@@ -11252,10 +11271,10 @@
         <v>1구로(신창방면)</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>2576</v>
-      </c>
-      <c r="C71" s="49" t="s">
-        <v>2574</v>
+        <v>2575</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>2573</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>95</v>
@@ -17443,8 +17462,8 @@
         <f t="shared" ref="A329" si="8">CONCATENATE(D329,C329)</f>
         <v>2성수(성수지선)</v>
       </c>
-      <c r="B329" s="63" t="s">
-        <v>2595</v>
+      <c r="B329" s="55" t="s">
+        <v>2594</v>
       </c>
       <c r="C329" s="45" t="s">
         <v>2561</v>
@@ -18547,8 +18566,8 @@
         <f t="shared" si="7"/>
         <v>2신도림(신정지선)</v>
       </c>
-      <c r="B375" s="47" t="s">
-        <v>2564</v>
+      <c r="B375" s="64" t="s">
+        <v>2596</v>
       </c>
       <c r="C375" s="13" t="s">
         <v>2547</v>
@@ -21379,11 +21398,11 @@
         <f t="shared" ref="A493" si="12">CONCATENATE(D493,C493)</f>
         <v>6응암(역촌방면)</v>
       </c>
-      <c r="B493" s="53" t="s">
-        <v>2582</v>
-      </c>
-      <c r="C493" s="54" t="s">
-        <v>2590</v>
+      <c r="B493" s="52" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C493" s="53" t="s">
+        <v>2589</v>
       </c>
       <c r="D493" s="13" t="s">
         <v>474</v>
@@ -24759,7 +24778,7 @@
   <sortState ref="D2:G630">
     <sortCondition ref="D2:D630"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24769,8 +24788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L661"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24818,16 +24837,16 @@
         <v>2554</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>1634</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -26293,12 +26312,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="57" t="s">
-        <v>2580</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="D45" s="58" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -26348,7 +26367,7 @@
         <v>1구로(신창방면)</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E47" s="1">
         <v>1.1000000000000001</v>
@@ -26361,7 +26380,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="J47" s="2">
         <v>1.1000000000000001</v>
@@ -26371,12 +26390,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="57" t="s">
         <v>1675</v>
       </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -26391,7 +26410,7 @@
         <v>1구로(신창방면)</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -26401,7 +26420,7 @@
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="23" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -27598,12 +27617,12 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="57" t="s">
         <v>1709</v>
       </c>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -28335,12 +28354,12 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D106" s="56" t="s">
+      <c r="D106" s="57" t="s">
         <v>1730</v>
       </c>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -29834,12 +29853,12 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D151" s="56" t="s">
+      <c r="D151" s="57" t="s">
         <v>1733</v>
       </c>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -29864,7 +29883,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="I152" s="23" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="J152" s="2">
         <v>0</v>
@@ -30007,12 +30026,12 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D157" s="56" t="s">
+      <c r="D157" s="57" t="s">
         <v>1734</v>
       </c>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -30020,14 +30039,14 @@
       </c>
       <c r="B158" s="2" t="str">
         <f>VLOOKUP($C158, 역사코드!$A:$E,2,FALSE)</f>
-        <v>*0234</v>
+        <v>#0234</v>
       </c>
       <c r="C158" s="9" t="str">
         <f>CONCATENATE(A158,D158)</f>
         <v>2신도림(신정지선)</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -30037,7 +30056,7 @@
       </c>
       <c r="G158" s="5"/>
       <c r="I158" s="23" t="s">
-        <v>2564</v>
+        <v>2597</v>
       </c>
       <c r="J158" s="2">
         <v>0</v>
@@ -30180,12 +30199,12 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D163" s="56" t="s">
+      <c r="D163" s="57" t="s">
         <v>1736</v>
       </c>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
-      <c r="G163" s="56"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -31722,12 +31741,12 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D208" s="56" t="s">
+      <c r="D208" s="57" t="s">
         <v>1751</v>
       </c>
-      <c r="E208" s="56"/>
-      <c r="F208" s="56"/>
-      <c r="G208" s="56"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -33379,12 +33398,12 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D257" s="56" t="s">
+      <c r="D257" s="57" t="s">
         <v>1773</v>
       </c>
-      <c r="E257" s="56"/>
-      <c r="F257" s="56"/>
-      <c r="G257" s="56"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
@@ -34991,12 +35010,12 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D304" s="56" t="s">
+      <c r="D304" s="57" t="s">
         <v>1819</v>
       </c>
-      <c r="E304" s="56"/>
-      <c r="F304" s="56"/>
-      <c r="G304" s="56"/>
+      <c r="E304" s="57"/>
+      <c r="F304" s="57"/>
+      <c r="G304" s="57"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -35011,7 +35030,7 @@
         <v>5강동(강동지선)</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E305" s="7">
         <v>0</v>
@@ -35021,7 +35040,7 @@
       </c>
       <c r="G305" s="8"/>
       <c r="I305" s="23" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="J305" s="2">
         <v>0</v>
@@ -35203,12 +35222,12 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D311" s="56" t="s">
+      <c r="D311" s="57" t="s">
         <v>1825</v>
       </c>
-      <c r="E311" s="56"/>
-      <c r="F311" s="56"/>
-      <c r="G311" s="56"/>
+      <c r="E311" s="57"/>
+      <c r="F311" s="57"/>
+      <c r="G311" s="57"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
@@ -35223,7 +35242,7 @@
         <v>6응암(역촌방면)</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E312" s="7">
         <v>0</v>
@@ -35233,7 +35252,7 @@
       </c>
       <c r="G312" s="8"/>
       <c r="I312" s="23" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="J312" s="2">
         <v>0</v>
@@ -35274,7 +35293,7 @@
         <v>1</v>
       </c>
       <c r="L313" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -35312,7 +35331,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -35350,7 +35369,7 @@
         <v>2</v>
       </c>
       <c r="L315" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -35388,7 +35407,7 @@
         <v>2</v>
       </c>
       <c r="L316" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -35426,7 +35445,7 @@
         <v>1</v>
       </c>
       <c r="L317" s="24" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -35442,7 +35461,7 @@
         <v>6응암</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E318" s="7">
         <v>1.5</v>
@@ -35464,7 +35483,7 @@
         <v>2</v>
       </c>
       <c r="L318" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -35502,7 +35521,7 @@
         <v>1</v>
       </c>
       <c r="L319" s="24" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -36591,12 +36610,12 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D351" s="60" t="s">
-        <v>2588</v>
-      </c>
-      <c r="E351" s="61"/>
-      <c r="F351" s="61"/>
-      <c r="G351" s="62"/>
+      <c r="D351" s="61" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E351" s="62"/>
+      <c r="F351" s="62"/>
+      <c r="G351" s="63"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
@@ -36643,7 +36662,7 @@
         <v>6응암(역촌방면)</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E353" s="7">
         <v>0.9</v>
@@ -36653,7 +36672,7 @@
       </c>
       <c r="G353" s="8"/>
       <c r="I353" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="J353" s="1">
         <v>0.9</v>
@@ -36662,16 +36681,16 @@
         <v>7.5</v>
       </c>
       <c r="L353" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D354" s="56" t="s">
+      <c r="D354" s="57" t="s">
         <v>1860</v>
       </c>
-      <c r="E354" s="56"/>
-      <c r="F354" s="56"/>
-      <c r="G354" s="56"/>
+      <c r="E354" s="57"/>
+      <c r="F354" s="57"/>
+      <c r="G354" s="57"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
@@ -38453,12 +38472,12 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D406" s="56" t="s">
+      <c r="D406" s="57" t="s">
         <v>1908</v>
       </c>
-      <c r="E406" s="56"/>
-      <c r="F406" s="56"/>
-      <c r="G406" s="56"/>
+      <c r="E406" s="57"/>
+      <c r="F406" s="57"/>
+      <c r="G406" s="57"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
@@ -39050,12 +39069,12 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D424" s="56" t="s">
+      <c r="D424" s="57" t="s">
         <v>1925</v>
       </c>
-      <c r="E424" s="56"/>
-      <c r="F424" s="56"/>
-      <c r="G424" s="56"/>
+      <c r="E424" s="57"/>
+      <c r="F424" s="57"/>
+      <c r="G424" s="57"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
@@ -40102,12 +40121,12 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D455" s="56" t="s">
+      <c r="D455" s="57" t="s">
         <v>1953</v>
       </c>
-      <c r="E455" s="56"/>
-      <c r="F455" s="56"/>
-      <c r="G455" s="56"/>
+      <c r="E455" s="57"/>
+      <c r="F455" s="57"/>
+      <c r="G455" s="57"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
@@ -41118,12 +41137,12 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D485" s="56" t="s">
+      <c r="D485" s="57" t="s">
         <v>1983</v>
       </c>
-      <c r="E485" s="56"/>
-      <c r="F485" s="56"/>
-      <c r="G485" s="56"/>
+      <c r="E485" s="57"/>
+      <c r="F485" s="57"/>
+      <c r="G485" s="57"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
@@ -42379,12 +42398,12 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D522" s="56" t="s">
+      <c r="D522" s="57" t="s">
         <v>2018</v>
       </c>
-      <c r="E522" s="56"/>
-      <c r="F522" s="56"/>
-      <c r="G522" s="56"/>
+      <c r="E522" s="57"/>
+      <c r="F522" s="57"/>
+      <c r="G522" s="57"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
@@ -42590,12 +42609,12 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D529" s="56" t="s">
+      <c r="D529" s="57" t="s">
         <v>2025</v>
       </c>
-      <c r="E529" s="56"/>
-      <c r="F529" s="56"/>
-      <c r="G529" s="56"/>
+      <c r="E529" s="57"/>
+      <c r="F529" s="57"/>
+      <c r="G529" s="57"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
@@ -44376,12 +44395,12 @@
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D581" s="56" t="s">
+      <c r="D581" s="57" t="s">
         <v>2071</v>
       </c>
-      <c r="E581" s="56"/>
-      <c r="F581" s="56"/>
-      <c r="G581" s="56"/>
+      <c r="E581" s="57"/>
+      <c r="F581" s="57"/>
+      <c r="G581" s="57"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
@@ -44482,12 +44501,12 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D585" s="56" t="s">
+      <c r="D585" s="57" t="s">
         <v>2072</v>
       </c>
-      <c r="E585" s="56"/>
-      <c r="F585" s="56"/>
-      <c r="G585" s="56"/>
+      <c r="E585" s="57"/>
+      <c r="F585" s="57"/>
+      <c r="G585" s="57"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
@@ -45218,12 +45237,12 @@
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D607" s="56" t="s">
+      <c r="D607" s="57" t="s">
         <v>2092</v>
       </c>
-      <c r="E607" s="56"/>
-      <c r="F607" s="56"/>
-      <c r="G607" s="56"/>
+      <c r="E607" s="57"/>
+      <c r="F607" s="57"/>
+      <c r="G607" s="57"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
@@ -45569,12 +45588,12 @@
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D618" s="56" t="s">
+      <c r="D618" s="57" t="s">
         <v>2103</v>
       </c>
-      <c r="E618" s="56"/>
-      <c r="F618" s="56"/>
-      <c r="G618" s="56"/>
+      <c r="E618" s="57"/>
+      <c r="F618" s="57"/>
+      <c r="G618" s="57"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
@@ -46095,12 +46114,12 @@
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D634" s="56" t="s">
+      <c r="D634" s="57" t="s">
         <v>2115</v>
       </c>
-      <c r="E634" s="56"/>
-      <c r="F634" s="56"/>
-      <c r="G634" s="56"/>
+      <c r="E634" s="57"/>
+      <c r="F634" s="57"/>
+      <c r="G634" s="57"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
@@ -46481,12 +46500,12 @@
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D646" s="56" t="s">
+      <c r="D646" s="57" t="s">
         <v>2122</v>
       </c>
-      <c r="E646" s="56"/>
-      <c r="F646" s="56"/>
-      <c r="G646" s="56"/>
+      <c r="E646" s="57"/>
+      <c r="F646" s="57"/>
+      <c r="G646" s="57"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
@@ -47008,18 +47027,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D646:G646"/>
-    <mergeCell ref="D406:G406"/>
-    <mergeCell ref="D424:G424"/>
-    <mergeCell ref="D455:G455"/>
-    <mergeCell ref="D485:G485"/>
-    <mergeCell ref="D522:G522"/>
-    <mergeCell ref="D529:G529"/>
-    <mergeCell ref="D581:G581"/>
-    <mergeCell ref="D585:G585"/>
-    <mergeCell ref="D607:G607"/>
-    <mergeCell ref="D618:G618"/>
-    <mergeCell ref="D634:G634"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D354:G354"/>
     <mergeCell ref="D48:G48"/>
@@ -47034,8 +47041,20 @@
     <mergeCell ref="D311:G311"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D351:G351"/>
+    <mergeCell ref="D646:G646"/>
+    <mergeCell ref="D406:G406"/>
+    <mergeCell ref="D424:G424"/>
+    <mergeCell ref="D455:G455"/>
+    <mergeCell ref="D485:G485"/>
+    <mergeCell ref="D522:G522"/>
+    <mergeCell ref="D529:G529"/>
+    <mergeCell ref="D581:G581"/>
+    <mergeCell ref="D585:G585"/>
+    <mergeCell ref="D607:G607"/>
+    <mergeCell ref="D618:G618"/>
+    <mergeCell ref="D634:G634"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -47045,7 +47064,7 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -50785,8 +50804,8 @@
         <f>VLOOKUP(D104,역사코드!$A:$B,2,FALSE)</f>
         <v>0211</v>
       </c>
-      <c r="I104" s="64" t="s">
-        <v>2596</v>
+      <c r="I104" s="56" t="s">
+        <v>2595</v>
       </c>
       <c r="J104" s="43" t="s">
         <v>968</v>
@@ -50795,7 +50814,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -50815,14 +50834,14 @@
       </c>
       <c r="E105" s="11" t="str">
         <f>VLOOKUP(C105,역사코드!$A:$B,2,FALSE)</f>
-        <v>*0234</v>
+        <v>#0234</v>
       </c>
       <c r="F105" s="11" t="str">
         <f>VLOOKUP(D105,역사코드!$A:$B,2,FALSE)</f>
         <v>0234</v>
       </c>
-      <c r="I105" s="48" t="s">
-        <v>2564</v>
+      <c r="I105" s="65" t="s">
+        <v>2598</v>
       </c>
       <c r="J105" s="43" t="s">
         <v>234</v>
@@ -50831,7 +50850,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -50879,11 +50898,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="49" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D107" s="49" t="s">
         <v>2571</v>
-      </c>
-      <c r="D107" s="50" t="s">
-        <v>2572</v>
       </c>
       <c r="E107" s="11" t="str">
         <f>VLOOKUP(C107,역사코드!$A:$B,2,FALSE)</f>
@@ -50897,7 +50916,7 @@
         <v>555</v>
       </c>
       <c r="J107" s="43" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="K107" s="43">
         <v>0</v>
@@ -50915,11 +50934,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="49" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D108" s="49" t="s">
         <v>2578</v>
-      </c>
-      <c r="D108" s="50" t="s">
-        <v>2579</v>
       </c>
       <c r="E108" s="11" t="str">
         <f>VLOOKUP(C108,역사코드!$A:$B,2,FALSE)</f>
@@ -50933,7 +50952,7 @@
         <v>1023</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="K108" s="43">
         <v>0</v>
@@ -50951,11 +50970,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="C109" s="51" t="s">
-        <v>2583</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>2594</v>
+      <c r="C109" s="50" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>2593</v>
       </c>
       <c r="E109" s="11">
         <f>VLOOKUP(C109,역사코드!$A:$B,2,FALSE)</f>
@@ -50968,8 +50987,8 @@
       <c r="I109" s="42">
         <v>2611</v>
       </c>
-      <c r="J109" s="52" t="s">
-        <v>2584</v>
+      <c r="J109" s="51" t="s">
+        <v>2583</v>
       </c>
       <c r="K109" s="43">
         <v>0</v>
@@ -50983,7 +51002,7 @@
     <sortCondition ref="A1:A123"/>
     <sortCondition ref="B1:B123"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
